--- a/AAII_Financials/Quarterly/WLGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WLGS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>WLGS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -944,8 +944,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>4800</v>
       </c>
       <c r="E17" s="3">
         <v>1600</v>
@@ -973,8 +973,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
@@ -1015,8 +1015,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1044,8 +1044,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-600</v>
       </c>
       <c r="E21" s="3">
         <v>-400</v>
@@ -1131,8 +1131,8 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1189,8 +1189,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
@@ -1218,8 +1218,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
@@ -1363,8 +1363,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1392,8 +1392,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
@@ -1450,8 +1450,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
@@ -2232,8 +2232,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>4800</v>
       </c>
       <c r="E66" s="3">
         <v>3400</v>
@@ -2598,8 +2598,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
@@ -3159,8 +3159,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-300</v>
